--- a/2_Docs/Planeacion_Proyecto.xlsx
+++ b/2_Docs/Planeacion_Proyecto.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">Planeación de proyecto</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Responsable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress</t>
   </si>
   <si>
     <t xml:space="preserve">Login con credenciales.</t>
@@ -168,8 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -472,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,6 +710,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,10 +1309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1361,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="55" t="s">
         <v>29</v>
       </c>
@@ -1371,14 +1379,19 @@
       </c>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -1386,18 +1399,23 @@
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
       <c r="I6" s="58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="58"/>
       <c r="K6" s="58"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -1405,18 +1423,23 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -1424,10 +1447,13 @@
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
       <c r="I8" s="58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="58"/>
       <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
@@ -1435,7 +1461,7 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -1443,10 +1469,13 @@
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
       <c r="I9" s="58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="58"/>
       <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
@@ -1460,10 +1489,13 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -1479,14 +1511,17 @@
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="58"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -1496,14 +1531,17 @@
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
@@ -1513,14 +1551,17 @@
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
@@ -1530,31 +1571,41 @@
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -1562,48 +1613,63 @@
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
       <c r="I16" s="58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="47">
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H11"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
